--- a/dataanalysis/data/predictions/1200/08121157_1158.xlsx
+++ b/dataanalysis/data/predictions/1200/08121157_1158.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="156">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-12</t>
   </si>
   <si>
@@ -479,12 +482,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -842,13 +839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,19 +948,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300009</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-3.17</v>
@@ -981,7 +981,7 @@
         <v>107314.8</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -1022,8 +1022,23 @@
       <c r="W2">
         <v>-1.61</v>
       </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>12.08</v>
+      </c>
+      <c r="Z2">
+        <v>1.43</v>
+      </c>
       <c r="AC2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1031,22 +1046,25 @@
       <c r="AG2">
         <v>0.7438952922821045</v>
       </c>
-      <c r="AH2" t="s">
-        <v>155</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300066</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-3.87</v>
@@ -1064,7 +1082,7 @@
         <v>66509.73</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1105,8 +1123,23 @@
       <c r="W3">
         <v>-1.5</v>
       </c>
+      <c r="X3">
+        <v>-1.14</v>
+      </c>
+      <c r="Y3">
+        <v>7.02</v>
+      </c>
+      <c r="Z3">
+        <v>1.01</v>
+      </c>
       <c r="AC3" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1114,22 +1147,25 @@
       <c r="AG3">
         <v>6.795217037200928</v>
       </c>
-      <c r="AH3" t="s">
-        <v>155</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300158</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.61</v>
@@ -1147,7 +1183,7 @@
         <v>114527.5</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4">
         <v>15</v>
@@ -1188,8 +1224,23 @@
       <c r="W4">
         <v>-0.67</v>
       </c>
+      <c r="X4">
+        <v>2.68</v>
+      </c>
+      <c r="Y4">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>4.79</v>
+      </c>
       <c r="AC4" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1197,22 +1248,25 @@
       <c r="AG4">
         <v>3.23561954498291</v>
       </c>
-      <c r="AH4" t="s">
-        <v>155</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300199</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-2.69</v>
@@ -1230,7 +1284,7 @@
         <v>187137.28</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K5">
         <v>11</v>
@@ -1271,8 +1325,23 @@
       <c r="W5">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X5">
+        <v>2.47</v>
+      </c>
+      <c r="Y5">
+        <v>25.28</v>
+      </c>
+      <c r="Z5">
+        <v>4.46</v>
+      </c>
       <c r="AC5" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1280,22 +1349,25 @@
       <c r="AG5">
         <v>3.798400402069092</v>
       </c>
-      <c r="AH5" t="s">
-        <v>155</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300218</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-2.76</v>
@@ -1313,7 +1385,7 @@
         <v>47085.47</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1354,8 +1426,23 @@
       <c r="W6">
         <v>-0.59</v>
       </c>
+      <c r="X6">
+        <v>-2.39</v>
+      </c>
+      <c r="Y6">
+        <v>23.66</v>
+      </c>
+      <c r="Z6">
+        <v>1.81</v>
+      </c>
       <c r="AC6" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1363,22 +1450,25 @@
       <c r="AG6">
         <v>3.478801488876343</v>
       </c>
-      <c r="AH6" t="s">
-        <v>155</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300289</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1.6</v>
@@ -1396,7 +1486,7 @@
         <v>90291.64</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1437,8 +1527,23 @@
       <c r="W7">
         <v>-0.19</v>
       </c>
+      <c r="X7">
+        <v>4.91</v>
+      </c>
+      <c r="Y7">
+        <v>11.6</v>
+      </c>
+      <c r="Z7">
+        <v>11.22</v>
+      </c>
       <c r="AC7" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1446,22 +1551,25 @@
       <c r="AG7">
         <v>3.806939601898193</v>
       </c>
-      <c r="AH7" t="s">
-        <v>155</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300314</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2.23</v>
@@ -1479,7 +1587,7 @@
         <v>53330.29</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1520,8 +1628,23 @@
       <c r="W8">
         <v>-0.55</v>
       </c>
+      <c r="X8">
+        <v>-2.62</v>
+      </c>
+      <c r="Y8">
+        <v>15.88</v>
+      </c>
+      <c r="Z8">
+        <v>1.86</v>
+      </c>
       <c r="AC8" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1529,22 +1652,25 @@
       <c r="AG8">
         <v>1.402583718299866</v>
       </c>
-      <c r="AH8" t="s">
-        <v>155</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300322</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.78</v>
@@ -1562,7 +1688,7 @@
         <v>298408.24</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -1603,8 +1729,23 @@
       <c r="W9">
         <v>-0.88</v>
       </c>
+      <c r="X9">
+        <v>4.58</v>
+      </c>
+      <c r="Y9">
+        <v>30.95</v>
+      </c>
+      <c r="Z9">
+        <v>8.710000000000001</v>
+      </c>
       <c r="AC9" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1612,22 +1753,25 @@
       <c r="AG9">
         <v>5.03382396697998</v>
       </c>
-      <c r="AH9" t="s">
-        <v>155</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300368</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.28</v>
@@ -1645,7 +1789,7 @@
         <v>209758.57</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1686,8 +1830,23 @@
       <c r="W10">
         <v>-2.64</v>
       </c>
+      <c r="X10">
+        <v>-2.44</v>
+      </c>
+      <c r="Y10">
+        <v>17.58</v>
+      </c>
+      <c r="Z10">
+        <v>3.53</v>
+      </c>
       <c r="AC10" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1695,22 +1854,25 @@
       <c r="AG10">
         <v>9.629938125610352</v>
       </c>
-      <c r="AH10" t="s">
-        <v>155</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300400</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-4.25</v>
@@ -1728,7 +1890,7 @@
         <v>60445.95</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1769,8 +1931,23 @@
       <c r="W11">
         <v>-0.58</v>
       </c>
+      <c r="X11">
+        <v>0.55</v>
+      </c>
+      <c r="Y11">
+        <v>24.46</v>
+      </c>
+      <c r="Z11">
+        <v>2.43</v>
+      </c>
       <c r="AC11" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1778,22 +1955,25 @@
       <c r="AG11">
         <v>6.136558532714844</v>
       </c>
-      <c r="AH11" t="s">
-        <v>155</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300436</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.9</v>
@@ -1811,7 +1991,7 @@
         <v>125214.3</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K12">
         <v>29</v>
@@ -1852,8 +2032,23 @@
       <c r="W12">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X12">
+        <v>1.21</v>
+      </c>
+      <c r="Y12">
+        <v>137.3</v>
+      </c>
+      <c r="Z12">
+        <v>2.46</v>
+      </c>
       <c r="AC12" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1861,22 +2056,25 @@
       <c r="AG12">
         <v>3.656419277191162</v>
       </c>
-      <c r="AH12" t="s">
-        <v>155</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300455</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-6.2</v>
@@ -1894,7 +2092,7 @@
         <v>92582.21000000001</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1935,8 +2133,23 @@
       <c r="W13">
         <v>-0.92</v>
       </c>
+      <c r="X13">
+        <v>0.9</v>
+      </c>
+      <c r="Y13">
+        <v>19.98</v>
+      </c>
+      <c r="Z13">
+        <v>4.88</v>
+      </c>
       <c r="AC13" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1944,22 +2157,25 @@
       <c r="AG13">
         <v>2.128497838973999</v>
       </c>
-      <c r="AH13" t="s">
-        <v>155</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300539</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-2.13</v>
@@ -1977,7 +2193,7 @@
         <v>58159.58</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -2018,8 +2234,23 @@
       <c r="W14">
         <v>-0.17</v>
       </c>
+      <c r="X14">
+        <v>-1.65</v>
+      </c>
+      <c r="Y14">
+        <v>28.89</v>
+      </c>
+      <c r="Z14">
+        <v>6.33</v>
+      </c>
       <c r="AC14" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -2027,22 +2258,25 @@
       <c r="AG14">
         <v>5.837366580963135</v>
       </c>
-      <c r="AH14" t="s">
-        <v>155</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300584</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>4.58</v>
@@ -2060,7 +2294,7 @@
         <v>87548.22</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2101,8 +2335,23 @@
       <c r="W15">
         <v>0.28</v>
       </c>
+      <c r="X15">
+        <v>-3.1</v>
+      </c>
+      <c r="Y15">
+        <v>51.7</v>
+      </c>
+      <c r="Z15">
+        <v>2.52</v>
+      </c>
       <c r="AC15" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2110,22 +2359,25 @@
       <c r="AG15">
         <v>3.249809503555298</v>
       </c>
-      <c r="AH15" t="s">
-        <v>155</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300593</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-2.2</v>
@@ -2143,7 +2395,7 @@
         <v>45619.24</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2184,8 +2436,23 @@
       <c r="W16">
         <v>-0.03</v>
       </c>
+      <c r="X16">
+        <v>2.77</v>
+      </c>
+      <c r="Y16">
+        <v>19.08</v>
+      </c>
+      <c r="Z16">
+        <v>2.03</v>
+      </c>
       <c r="AC16" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2193,22 +2460,25 @@
       <c r="AG16">
         <v>5.316096305847168</v>
       </c>
-      <c r="AH16" t="s">
-        <v>155</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300600</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-4.44</v>
@@ -2226,7 +2496,7 @@
         <v>58639.71</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -2267,8 +2537,23 @@
       <c r="W17">
         <v>-0.61</v>
       </c>
+      <c r="X17">
+        <v>3.57</v>
+      </c>
+      <c r="Y17">
+        <v>22.5</v>
+      </c>
+      <c r="Z17">
+        <v>9.970000000000001</v>
+      </c>
       <c r="AC17" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2276,22 +2561,25 @@
       <c r="AG17">
         <v>3.999207735061646</v>
       </c>
-      <c r="AH17" t="s">
-        <v>155</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300620</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>19.99</v>
@@ -2309,7 +2597,7 @@
         <v>10070.53</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2350,8 +2638,23 @@
       <c r="W18">
         <v>0.27</v>
       </c>
+      <c r="X18">
+        <v>20.01</v>
+      </c>
+      <c r="Y18">
+        <v>79.3</v>
+      </c>
+      <c r="Z18">
+        <v>20.01</v>
+      </c>
       <c r="AC18" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2359,22 +2662,25 @@
       <c r="AG18">
         <v>5.962158679962158</v>
       </c>
-      <c r="AH18" t="s">
-        <v>156</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300648</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-0.55</v>
@@ -2392,7 +2698,7 @@
         <v>43897.2</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2433,8 +2739,23 @@
       <c r="W19">
         <v>-0.6</v>
       </c>
+      <c r="X19">
+        <v>3.42</v>
+      </c>
+      <c r="Y19">
+        <v>58</v>
+      </c>
+      <c r="Z19">
+        <v>3.41</v>
+      </c>
       <c r="AC19" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2442,22 +2763,25 @@
       <c r="AG19">
         <v>4.781271457672119</v>
       </c>
-      <c r="AH19" t="s">
-        <v>155</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300671</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>10.56</v>
@@ -2475,7 +2799,7 @@
         <v>147185.48</v>
       </c>
       <c r="J20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2516,8 +2840,23 @@
       <c r="W20">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X20">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y20">
+        <v>44.44</v>
+      </c>
+      <c r="Z20">
+        <v>2.51</v>
+      </c>
       <c r="AC20" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2525,22 +2864,25 @@
       <c r="AG20">
         <v>3.09274435043335</v>
       </c>
-      <c r="AH20" t="s">
-        <v>155</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300684</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.06</v>
@@ -2558,7 +2900,7 @@
         <v>93865.84</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2599,8 +2941,23 @@
       <c r="W21">
         <v>0.8100000000000001</v>
       </c>
+      <c r="X21">
+        <v>-0.68</v>
+      </c>
+      <c r="Y21">
+        <v>33.79</v>
+      </c>
+      <c r="Z21">
+        <v>3.14</v>
+      </c>
       <c r="AC21" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2608,22 +2965,25 @@
       <c r="AG21">
         <v>0.8779464960098267</v>
       </c>
-      <c r="AH21" t="s">
-        <v>155</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300689</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-1.99</v>
@@ -2641,7 +3001,7 @@
         <v>38564.13</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2682,8 +3042,23 @@
       <c r="W22">
         <v>0.01</v>
       </c>
+      <c r="X22">
+        <v>-4.73</v>
+      </c>
+      <c r="Y22">
+        <v>62.3</v>
+      </c>
+      <c r="Z22">
+        <v>-4.23</v>
+      </c>
       <c r="AC22" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2691,22 +3066,25 @@
       <c r="AG22">
         <v>5.297127723693848</v>
       </c>
-      <c r="AH22" t="s">
-        <v>155</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300690</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>10.74</v>
@@ -2724,7 +3102,7 @@
         <v>151788.51</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2765,8 +3143,23 @@
       <c r="W23">
         <v>-3.22</v>
       </c>
+      <c r="X23">
+        <v>2.32</v>
+      </c>
+      <c r="Y23">
+        <v>36.72</v>
+      </c>
+      <c r="Z23">
+        <v>0.85</v>
+      </c>
       <c r="AC23" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2774,22 +3167,25 @@
       <c r="AG23">
         <v>7.246017932891846</v>
       </c>
-      <c r="AH23" t="s">
-        <v>155</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300703</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-1.65</v>
@@ -2807,7 +3203,7 @@
         <v>34782.89</v>
       </c>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2848,8 +3244,23 @@
       <c r="W24">
         <v>-0.25</v>
       </c>
+      <c r="X24">
+        <v>-0.45</v>
+      </c>
+      <c r="Y24">
+        <v>34.34</v>
+      </c>
+      <c r="Z24">
+        <v>8.84</v>
+      </c>
       <c r="AC24" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2857,22 +3268,25 @@
       <c r="AG24">
         <v>4.269016742706299</v>
       </c>
-      <c r="AH24" t="s">
-        <v>155</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300706</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>7.8</v>
@@ -2890,7 +3304,7 @@
         <v>151674.16</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25">
         <v>13</v>
@@ -2931,8 +3345,23 @@
       <c r="W25">
         <v>-1.12</v>
       </c>
+      <c r="X25">
+        <v>1.25</v>
+      </c>
+      <c r="Y25">
+        <v>50.6</v>
+      </c>
+      <c r="Z25">
+        <v>2.57</v>
+      </c>
       <c r="AC25" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -2940,22 +3369,25 @@
       <c r="AG25">
         <v>8.339768409729004</v>
       </c>
-      <c r="AH25" t="s">
-        <v>155</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300731</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-5.16</v>
@@ -2973,7 +3405,7 @@
         <v>82850.39999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -3014,8 +3446,23 @@
       <c r="W26">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X26">
+        <v>6.97</v>
+      </c>
+      <c r="Y26">
+        <v>52.3</v>
+      </c>
+      <c r="Z26">
+        <v>5.7</v>
+      </c>
       <c r="AC26" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3023,22 +3470,25 @@
       <c r="AG26">
         <v>3.632324934005737</v>
       </c>
-      <c r="AH26" t="s">
-        <v>155</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300732</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-5.32</v>
@@ -3056,7 +3506,7 @@
         <v>38585.76</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K27">
         <v>10</v>
@@ -3097,8 +3547,23 @@
       <c r="W27">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X27">
+        <v>1.32</v>
+      </c>
+      <c r="Y27">
+        <v>11.65</v>
+      </c>
+      <c r="Z27">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="AC27" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3106,22 +3571,25 @@
       <c r="AG27">
         <v>5.77140474319458</v>
       </c>
-      <c r="AH27" t="s">
-        <v>155</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300780</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-3.35</v>
@@ -3139,7 +3607,7 @@
         <v>37084.17</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3180,8 +3648,23 @@
       <c r="W28">
         <v>-0.43</v>
       </c>
+      <c r="X28">
+        <v>-3.7</v>
+      </c>
+      <c r="Y28">
+        <v>21.44</v>
+      </c>
+      <c r="Z28">
+        <v>3.13</v>
+      </c>
       <c r="AC28" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3189,22 +3672,25 @@
       <c r="AG28">
         <v>1.797817468643188</v>
       </c>
-      <c r="AH28" t="s">
-        <v>155</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300815</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>20.02</v>
@@ -3222,7 +3708,7 @@
         <v>164983.48</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3263,8 +3749,23 @@
       <c r="W29">
         <v>1.95</v>
       </c>
+      <c r="X29">
+        <v>14.17</v>
+      </c>
+      <c r="Y29">
+        <v>35.29</v>
+      </c>
+      <c r="Z29">
+        <v>19.63</v>
+      </c>
       <c r="AC29" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3272,22 +3773,25 @@
       <c r="AG29">
         <v>10.69634246826172</v>
       </c>
-      <c r="AH29" t="s">
-        <v>155</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300873</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-1.49</v>
@@ -3305,7 +3809,7 @@
         <v>29755.05</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3346,8 +3850,23 @@
       <c r="W30">
         <v>0.49</v>
       </c>
+      <c r="X30">
+        <v>-3.6</v>
+      </c>
+      <c r="Y30">
+        <v>26.7</v>
+      </c>
+      <c r="Z30">
+        <v>3.65</v>
+      </c>
       <c r="AC30" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3355,22 +3874,25 @@
       <c r="AG30">
         <v>10.72536754608154</v>
       </c>
-      <c r="AH30" t="s">
-        <v>156</v>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300875</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-6.17</v>
@@ -3388,7 +3910,7 @@
         <v>82281.86</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3429,8 +3951,23 @@
       <c r="W31">
         <v>-0.83</v>
       </c>
+      <c r="X31">
+        <v>0.84</v>
+      </c>
+      <c r="Y31">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="Z31">
+        <v>8.02</v>
+      </c>
       <c r="AC31" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3438,22 +3975,25 @@
       <c r="AG31">
         <v>12.26761245727539</v>
       </c>
-      <c r="AH31" t="s">
-        <v>155</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300885</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-3.5</v>
@@ -3471,7 +4011,7 @@
         <v>73235.3</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K32">
         <v>15</v>
@@ -3512,8 +4052,23 @@
       <c r="W32">
         <v>-1.14</v>
       </c>
+      <c r="X32">
+        <v>-1.55</v>
+      </c>
+      <c r="Y32">
+        <v>30.66</v>
+      </c>
+      <c r="Z32">
+        <v>2.89</v>
+      </c>
       <c r="AC32" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3521,22 +4076,25 @@
       <c r="AG32">
         <v>3.40129280090332</v>
       </c>
-      <c r="AH32" t="s">
-        <v>155</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300916</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0.18</v>
@@ -3554,7 +4112,7 @@
         <v>33270.45</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3595,8 +4153,23 @@
       <c r="W33">
         <v>0.29</v>
       </c>
+      <c r="X33">
+        <v>-1.12</v>
+      </c>
+      <c r="Y33">
+        <v>45.02</v>
+      </c>
+      <c r="Z33">
+        <v>-0.13</v>
+      </c>
       <c r="AC33" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3604,22 +4177,25 @@
       <c r="AG33">
         <v>2.846449613571167</v>
       </c>
-      <c r="AH33" t="s">
-        <v>155</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300943</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-4.45</v>
@@ -3637,7 +4213,7 @@
         <v>28542.22</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3678,8 +4254,23 @@
       <c r="W34">
         <v>-0.23</v>
       </c>
+      <c r="X34">
+        <v>-2.01</v>
+      </c>
+      <c r="Y34">
+        <v>18.96</v>
+      </c>
+      <c r="Z34">
+        <v>1.61</v>
+      </c>
       <c r="AC34" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3687,22 +4278,25 @@
       <c r="AG34">
         <v>7.581995010375977</v>
       </c>
-      <c r="AH34" t="s">
-        <v>155</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300981</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.06</v>
@@ -3720,7 +4314,7 @@
         <v>63040.06</v>
       </c>
       <c r="J35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3761,8 +4355,23 @@
       <c r="W35">
         <v>-0.06</v>
       </c>
+      <c r="X35">
+        <v>1.66</v>
+      </c>
+      <c r="Y35">
+        <v>17.8</v>
+      </c>
+      <c r="Z35">
+        <v>0.62</v>
+      </c>
       <c r="AC35" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3770,22 +4379,25 @@
       <c r="AG35">
         <v>5.572366237640381</v>
       </c>
-      <c r="AH35" t="s">
-        <v>155</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300993</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-4.71</v>
@@ -3803,7 +4415,7 @@
         <v>42370.03</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3844,8 +4456,23 @@
       <c r="W36">
         <v>-0.3</v>
       </c>
+      <c r="X36">
+        <v>2.94</v>
+      </c>
+      <c r="Y36">
+        <v>19.06</v>
+      </c>
+      <c r="Z36">
+        <v>4.78</v>
+      </c>
       <c r="AC36" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3853,22 +4480,25 @@
       <c r="AG36">
         <v>5.711464405059814</v>
       </c>
-      <c r="AH36" t="s">
-        <v>155</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301005</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -3886,7 +4516,7 @@
         <v>120435.75</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3927,8 +4557,23 @@
       <c r="W37">
         <v>-0.76</v>
       </c>
+      <c r="X37">
+        <v>2.89</v>
+      </c>
+      <c r="Y37">
+        <v>55.96</v>
+      </c>
+      <c r="Z37">
+        <v>-1.81</v>
+      </c>
       <c r="AC37" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3936,22 +4581,25 @@
       <c r="AG37">
         <v>0.6207160353660583</v>
       </c>
-      <c r="AH37" t="s">
-        <v>155</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301022</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-7.26</v>
@@ -3969,7 +4617,7 @@
         <v>44702.86</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K38">
         <v>5</v>
@@ -4010,8 +4658,23 @@
       <c r="W38">
         <v>-1.44</v>
       </c>
+      <c r="X38">
+        <v>-5.68</v>
+      </c>
+      <c r="Y38">
+        <v>49.3</v>
+      </c>
+      <c r="Z38">
+        <v>11.16</v>
+      </c>
       <c r="AC38" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4019,22 +4682,25 @@
       <c r="AG38">
         <v>0.7946220636367798</v>
       </c>
-      <c r="AH38" t="s">
-        <v>155</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301038</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-3.48</v>
@@ -4052,7 +4718,7 @@
         <v>59855.16</v>
       </c>
       <c r="J39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K39">
         <v>11</v>
@@ -4093,8 +4759,23 @@
       <c r="W39">
         <v>-0.14</v>
       </c>
+      <c r="X39">
+        <v>3.59</v>
+      </c>
+      <c r="Y39">
+        <v>38.02</v>
+      </c>
+      <c r="Z39">
+        <v>3.94</v>
+      </c>
       <c r="AC39" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4102,22 +4783,25 @@
       <c r="AG39">
         <v>8.934871673583984</v>
       </c>
-      <c r="AH39" t="s">
-        <v>155</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301048</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.92</v>
@@ -4135,7 +4819,7 @@
         <v>76027.44</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4176,8 +4860,23 @@
       <c r="W40">
         <v>0.26</v>
       </c>
+      <c r="X40">
+        <v>-4.42</v>
+      </c>
+      <c r="Y40">
+        <v>14.3</v>
+      </c>
+      <c r="Z40">
+        <v>-3.64</v>
+      </c>
       <c r="AC40" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4185,22 +4884,25 @@
       <c r="AG40">
         <v>7.457169532775879</v>
       </c>
-      <c r="AH40" t="s">
-        <v>155</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301069</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.83</v>
@@ -4218,7 +4920,7 @@
         <v>48825.38</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4259,8 +4961,23 @@
       <c r="W41">
         <v>-0.33</v>
       </c>
+      <c r="X41">
+        <v>0.09</v>
+      </c>
+      <c r="Y41">
+        <v>22.62</v>
+      </c>
+      <c r="Z41">
+        <v>2.82</v>
+      </c>
       <c r="AC41" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4268,22 +4985,25 @@
       <c r="AG41">
         <v>3.154500246047974</v>
       </c>
-      <c r="AH41" t="s">
-        <v>155</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301076</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-4.98</v>
@@ -4301,7 +5021,7 @@
         <v>109977.74</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4342,8 +5062,23 @@
       <c r="W42">
         <v>-0.23</v>
       </c>
+      <c r="X42">
+        <v>3.08</v>
+      </c>
+      <c r="Y42">
+        <v>52.47</v>
+      </c>
+      <c r="Z42">
+        <v>11</v>
+      </c>
       <c r="AC42" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4351,22 +5086,25 @@
       <c r="AG42">
         <v>6.297921180725098</v>
       </c>
-      <c r="AH42" t="s">
-        <v>155</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301095</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.73</v>
@@ -4384,7 +5122,7 @@
         <v>60302.01</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -4425,8 +5163,23 @@
       <c r="W43">
         <v>0.74</v>
       </c>
+      <c r="X43">
+        <v>5.61</v>
+      </c>
+      <c r="Y43">
+        <v>87.2</v>
+      </c>
+      <c r="Z43">
+        <v>8.59</v>
+      </c>
       <c r="AC43" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4434,22 +5187,25 @@
       <c r="AG43">
         <v>3.89815092086792</v>
       </c>
-      <c r="AH43" t="s">
-        <v>155</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301112</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.9</v>
@@ -4467,7 +5223,7 @@
         <v>19997.73</v>
       </c>
       <c r="J44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4508,8 +5264,23 @@
       <c r="W44">
         <v>-0.02</v>
       </c>
+      <c r="X44">
+        <v>-5.17</v>
+      </c>
+      <c r="Y44">
+        <v>49.5</v>
+      </c>
+      <c r="Z44">
+        <v>2.27</v>
+      </c>
       <c r="AC44" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4517,22 +5288,25 @@
       <c r="AG44">
         <v>5.409677982330322</v>
       </c>
-      <c r="AH44" t="s">
-        <v>155</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301117</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-7.02</v>
@@ -4550,7 +5324,7 @@
         <v>50271.14</v>
       </c>
       <c r="J45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4591,8 +5365,23 @@
       <c r="W45">
         <v>-1.09</v>
       </c>
+      <c r="X45">
+        <v>4.79</v>
+      </c>
+      <c r="Y45">
+        <v>45.6</v>
+      </c>
+      <c r="Z45">
+        <v>17.43</v>
+      </c>
       <c r="AC45" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4600,22 +5389,25 @@
       <c r="AG45">
         <v>3.634736299514771</v>
       </c>
-      <c r="AH45" t="s">
-        <v>155</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301120</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>7.94</v>
@@ -4633,7 +5425,7 @@
         <v>87581.86</v>
       </c>
       <c r="J46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4674,8 +5466,23 @@
       <c r="W46">
         <v>2.17</v>
       </c>
+      <c r="X46">
+        <v>1.08</v>
+      </c>
+      <c r="Y46">
+        <v>15.8</v>
+      </c>
+      <c r="Z46">
+        <v>3.74</v>
+      </c>
       <c r="AC46" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4683,22 +5490,25 @@
       <c r="AG46">
         <v>5.589912414550781</v>
       </c>
-      <c r="AH46" t="s">
-        <v>156</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301123</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0.09</v>
@@ -4716,7 +5526,7 @@
         <v>34548.89</v>
       </c>
       <c r="J47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K47">
         <v>6</v>
@@ -4757,8 +5567,23 @@
       <c r="W47">
         <v>-0.39</v>
       </c>
+      <c r="X47">
+        <v>-5</v>
+      </c>
+      <c r="Y47">
+        <v>33.38</v>
+      </c>
+      <c r="Z47">
+        <v>0.3</v>
+      </c>
       <c r="AC47" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4766,22 +5591,25 @@
       <c r="AG47">
         <v>2.023457527160645</v>
       </c>
-      <c r="AH47" t="s">
-        <v>155</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301132</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>4.36</v>
@@ -4799,7 +5627,7 @@
         <v>61762.53</v>
       </c>
       <c r="J48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4840,8 +5668,23 @@
       <c r="W48">
         <v>0.25</v>
       </c>
+      <c r="X48">
+        <v>-0.85</v>
+      </c>
+      <c r="Y48">
+        <v>42.5</v>
+      </c>
+      <c r="Z48">
+        <v>0.97</v>
+      </c>
       <c r="AC48" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4849,22 +5692,25 @@
       <c r="AG48">
         <v>1.432775139808655</v>
       </c>
-      <c r="AH48" t="s">
-        <v>155</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301161</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-1.16</v>
@@ -4882,7 +5728,7 @@
         <v>27957.03</v>
       </c>
       <c r="J49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K49">
         <v>7</v>
@@ -4923,8 +5769,23 @@
       <c r="W49">
         <v>-0.92</v>
       </c>
+      <c r="X49">
+        <v>5.07</v>
+      </c>
+      <c r="Y49">
+        <v>41.66</v>
+      </c>
+      <c r="Z49">
+        <v>8.460000000000001</v>
+      </c>
       <c r="AC49" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4932,22 +5793,25 @@
       <c r="AG49">
         <v>2.74660849571228</v>
       </c>
-      <c r="AH49" t="s">
-        <v>155</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301187</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.12</v>
@@ -4965,7 +5829,7 @@
         <v>18467.77</v>
       </c>
       <c r="J50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5006,8 +5870,23 @@
       <c r="W50">
         <v>-0.39</v>
       </c>
+      <c r="X50">
+        <v>2.91</v>
+      </c>
+      <c r="Y50">
+        <v>35.27</v>
+      </c>
+      <c r="Z50">
+        <v>5.22</v>
+      </c>
       <c r="AC50" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5015,22 +5894,25 @@
       <c r="AG50">
         <v>1.528214931488037</v>
       </c>
-      <c r="AH50" t="s">
-        <v>155</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301200</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-5</v>
@@ -5048,7 +5930,7 @@
         <v>87427.89999999999</v>
       </c>
       <c r="J51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K51">
         <v>14</v>
@@ -5089,8 +5971,23 @@
       <c r="W51">
         <v>-0.66</v>
       </c>
+      <c r="X51">
+        <v>7.52</v>
+      </c>
+      <c r="Y51">
+        <v>103</v>
+      </c>
+      <c r="Z51">
+        <v>8.42</v>
+      </c>
       <c r="AC51" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5098,22 +5995,25 @@
       <c r="AG51">
         <v>2.194223642349243</v>
       </c>
-      <c r="AH51" t="s">
-        <v>155</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301232</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>2.8</v>
@@ -5131,7 +6031,7 @@
         <v>42955.11</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -5172,8 +6072,23 @@
       <c r="W52">
         <v>1.03</v>
       </c>
+      <c r="X52">
+        <v>-2.86</v>
+      </c>
+      <c r="Y52">
+        <v>41.88</v>
+      </c>
+      <c r="Z52">
+        <v>1.04</v>
+      </c>
       <c r="AC52" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5181,22 +6096,25 @@
       <c r="AG52">
         <v>5.203793048858643</v>
       </c>
-      <c r="AH52" t="s">
-        <v>155</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301251</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>1.87</v>
@@ -5214,7 +6132,7 @@
         <v>107284.93</v>
       </c>
       <c r="J53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -5255,8 +6173,23 @@
       <c r="W53">
         <v>-0.77</v>
       </c>
+      <c r="X53">
+        <v>6.99</v>
+      </c>
+      <c r="Y53">
+        <v>66.55</v>
+      </c>
+      <c r="Z53">
+        <v>17.31</v>
+      </c>
       <c r="AC53" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5264,22 +6197,25 @@
       <c r="AG53">
         <v>-1.106760621070862</v>
       </c>
-      <c r="AH53" t="s">
-        <v>155</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301285</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-2.13</v>
@@ -5297,7 +6233,7 @@
         <v>32897.23</v>
       </c>
       <c r="J54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5338,8 +6274,23 @@
       <c r="W54">
         <v>0.6</v>
       </c>
+      <c r="X54">
+        <v>0.08</v>
+      </c>
+      <c r="Y54">
+        <v>52.39</v>
+      </c>
+      <c r="Z54">
+        <v>3.74</v>
+      </c>
       <c r="AC54" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5347,22 +6298,25 @@
       <c r="AG54">
         <v>6.160603046417236</v>
       </c>
-      <c r="AH54" t="s">
-        <v>156</v>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301312</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>2.99</v>
@@ -5380,7 +6334,7 @@
         <v>28719.25</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5421,8 +6375,23 @@
       <c r="W55">
         <v>0.29</v>
       </c>
+      <c r="X55">
+        <v>2.07</v>
+      </c>
+      <c r="Y55">
+        <v>49.2</v>
+      </c>
+      <c r="Z55">
+        <v>3.58</v>
+      </c>
       <c r="AC55" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5430,22 +6399,25 @@
       <c r="AG55">
         <v>2.826963901519775</v>
       </c>
-      <c r="AH55" t="s">
-        <v>155</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301323</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>8.09</v>
@@ -5463,7 +6435,7 @@
         <v>44351</v>
       </c>
       <c r="J56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5504,8 +6476,23 @@
       <c r="W56">
         <v>0.2</v>
       </c>
+      <c r="X56">
+        <v>1.14</v>
+      </c>
+      <c r="Y56">
+        <v>58.26</v>
+      </c>
+      <c r="Z56">
+        <v>2.61</v>
+      </c>
       <c r="AC56" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5513,22 +6500,25 @@
       <c r="AG56">
         <v>1.698299169540405</v>
       </c>
-      <c r="AH56" t="s">
-        <v>155</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301326</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>0.97</v>
@@ -5546,7 +6536,7 @@
         <v>30284.22</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5587,8 +6577,23 @@
       <c r="W57">
         <v>1.42</v>
       </c>
+      <c r="X57">
+        <v>-1.61</v>
+      </c>
+      <c r="Y57">
+        <v>96.89</v>
+      </c>
+      <c r="Z57">
+        <v>0.91</v>
+      </c>
       <c r="AC57" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5596,22 +6601,25 @@
       <c r="AG57">
         <v>1.798790454864502</v>
       </c>
-      <c r="AH57" t="s">
-        <v>155</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301345</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>7.22</v>
@@ -5629,7 +6637,7 @@
         <v>36163.73</v>
       </c>
       <c r="J58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K58">
         <v>14</v>
@@ -5670,8 +6678,23 @@
       <c r="W58">
         <v>0.21</v>
       </c>
+      <c r="X58">
+        <v>1.34</v>
+      </c>
+      <c r="Y58">
+        <v>175.21</v>
+      </c>
+      <c r="Z58">
+        <v>-0.96</v>
+      </c>
       <c r="AC58" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5679,22 +6702,25 @@
       <c r="AG58">
         <v>3.245580673217773</v>
       </c>
-      <c r="AH58" t="s">
-        <v>155</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301357</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-3.8</v>
@@ -5712,7 +6738,7 @@
         <v>86287.03999999999</v>
       </c>
       <c r="J59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K59">
         <v>11</v>
@@ -5753,8 +6779,23 @@
       <c r="W59">
         <v>-2.2</v>
       </c>
+      <c r="X59">
+        <v>4.19</v>
+      </c>
+      <c r="Y59">
+        <v>175.5</v>
+      </c>
+      <c r="Z59">
+        <v>15.17</v>
+      </c>
       <c r="AC59" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5762,22 +6803,25 @@
       <c r="AG59">
         <v>-0.5158687829971313</v>
       </c>
-      <c r="AH59" t="s">
-        <v>155</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301377</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0.09</v>
@@ -5795,7 +6839,7 @@
         <v>25583.81</v>
       </c>
       <c r="J60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5836,8 +6880,23 @@
       <c r="W60">
         <v>-0.02</v>
       </c>
+      <c r="X60">
+        <v>7.09</v>
+      </c>
+      <c r="Y60">
+        <v>60.52</v>
+      </c>
+      <c r="Z60">
+        <v>9.24</v>
+      </c>
       <c r="AC60" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5845,22 +6904,25 @@
       <c r="AG60">
         <v>0.7045371532440186</v>
       </c>
-      <c r="AH60" t="s">
-        <v>155</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301397</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-5.87</v>
@@ -5878,7 +6940,7 @@
         <v>26459.3</v>
       </c>
       <c r="J61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K61">
         <v>4</v>
@@ -5919,8 +6981,23 @@
       <c r="W61">
         <v>-0.55</v>
       </c>
+      <c r="X61">
+        <v>8.84</v>
+      </c>
+      <c r="Y61">
+        <v>43.36</v>
+      </c>
+      <c r="Z61">
+        <v>15.14</v>
+      </c>
       <c r="AC61" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5928,22 +7005,25 @@
       <c r="AG61">
         <v>2.808648347854614</v>
       </c>
-      <c r="AH61" t="s">
-        <v>155</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301399</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-0.62</v>
@@ -5961,7 +7041,7 @@
         <v>32427.15</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6002,8 +7082,23 @@
       <c r="W62">
         <v>-0.35</v>
       </c>
+      <c r="X62">
+        <v>-2.57</v>
+      </c>
+      <c r="Y62">
+        <v>24.13</v>
+      </c>
+      <c r="Z62">
+        <v>0.42</v>
+      </c>
       <c r="AC62" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6011,22 +7106,25 @@
       <c r="AG62">
         <v>-0.4534649252891541</v>
       </c>
-      <c r="AH62" t="s">
-        <v>155</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301489</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>1.84</v>
@@ -6044,7 +7142,7 @@
         <v>77783.61</v>
       </c>
       <c r="J63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K63">
         <v>9</v>
@@ -6085,8 +7183,23 @@
       <c r="W63">
         <v>-0.05</v>
       </c>
+      <c r="X63">
+        <v>5.83</v>
+      </c>
+      <c r="Y63">
+        <v>164.64</v>
+      </c>
+      <c r="Z63">
+        <v>9.66</v>
+      </c>
       <c r="AC63" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6094,22 +7207,25 @@
       <c r="AG63">
         <v>2.84712028503418</v>
       </c>
-      <c r="AH63" t="s">
-        <v>155</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688108</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.53</v>
@@ -6127,7 +7243,7 @@
         <v>240851.15</v>
       </c>
       <c r="J64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6168,8 +7284,23 @@
       <c r="W64">
         <v>-2.8</v>
       </c>
+      <c r="X64">
+        <v>17.48</v>
+      </c>
+      <c r="Y64">
+        <v>30.13</v>
+      </c>
+      <c r="Z64">
+        <v>22.18</v>
+      </c>
       <c r="AC64" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6177,22 +7308,25 @@
       <c r="AG64">
         <v>4.648620128631592</v>
       </c>
-      <c r="AH64" t="s">
-        <v>155</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688110</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>1.62</v>
@@ -6210,7 +7344,7 @@
         <v>272338.38</v>
       </c>
       <c r="J65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K65">
         <v>11</v>
@@ -6251,8 +7385,23 @@
       <c r="W65">
         <v>-0.62</v>
       </c>
+      <c r="X65">
+        <v>2.75</v>
+      </c>
+      <c r="Y65">
+        <v>92.66</v>
+      </c>
+      <c r="Z65">
+        <v>7.74</v>
+      </c>
       <c r="AC65" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6260,22 +7409,25 @@
       <c r="AG65">
         <v>0.5559657216072083</v>
       </c>
-      <c r="AH65" t="s">
-        <v>155</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688167</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>1.55</v>
@@ -6293,7 +7445,7 @@
         <v>34597.55</v>
       </c>
       <c r="J66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -6334,8 +7486,23 @@
       <c r="W66">
         <v>0.17</v>
       </c>
+      <c r="X66">
+        <v>-3.65</v>
+      </c>
+      <c r="Y66">
+        <v>106.5</v>
+      </c>
+      <c r="Z66">
+        <v>4.51</v>
+      </c>
       <c r="AC66" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6343,22 +7510,25 @@
       <c r="AG66">
         <v>3.835160732269287</v>
       </c>
-      <c r="AH66" t="s">
-        <v>155</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688273</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>16.94</v>
@@ -6376,7 +7546,7 @@
         <v>65420.65</v>
       </c>
       <c r="J67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6417,8 +7587,23 @@
       <c r="W67">
         <v>1.87</v>
       </c>
+      <c r="X67">
+        <v>-3.27</v>
+      </c>
+      <c r="Y67">
+        <v>53.43</v>
+      </c>
+      <c r="Z67">
+        <v>2.1</v>
+      </c>
       <c r="AC67" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -6426,22 +7611,25 @@
       <c r="AG67">
         <v>4.173810958862305</v>
       </c>
-      <c r="AH67" t="s">
-        <v>156</v>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688379</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-2.28</v>
@@ -6459,7 +7647,7 @@
         <v>23130.99</v>
       </c>
       <c r="J68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6500,8 +7688,23 @@
       <c r="W68">
         <v>0</v>
       </c>
+      <c r="X68">
+        <v>3.05</v>
+      </c>
+      <c r="Y68">
+        <v>51.42</v>
+      </c>
+      <c r="Z68">
+        <v>5.96</v>
+      </c>
       <c r="AC68" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6509,22 +7712,25 @@
       <c r="AG68">
         <v>1.853910326957703</v>
       </c>
-      <c r="AH68" t="s">
-        <v>155</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688499</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>8.369999999999999</v>
@@ -6542,7 +7748,7 @@
         <v>52285.4</v>
       </c>
       <c r="J69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K69">
         <v>41</v>
@@ -6583,8 +7789,23 @@
       <c r="W69">
         <v>0.04</v>
       </c>
+      <c r="X69">
+        <v>0.68</v>
+      </c>
+      <c r="Y69">
+        <v>59.69</v>
+      </c>
+      <c r="Z69">
+        <v>1.81</v>
+      </c>
       <c r="AC69" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6592,22 +7813,25 @@
       <c r="AG69">
         <v>0.9854430556297302</v>
       </c>
-      <c r="AH69" t="s">
-        <v>155</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688551</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-4.52</v>
@@ -6625,7 +7849,7 @@
         <v>30955.53</v>
       </c>
       <c r="J70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6666,8 +7890,23 @@
       <c r="W70">
         <v>-0.93</v>
       </c>
+      <c r="X70">
+        <v>0.16</v>
+      </c>
+      <c r="Y70">
+        <v>46</v>
+      </c>
+      <c r="Z70">
+        <v>4.74</v>
+      </c>
       <c r="AC70" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6675,22 +7914,25 @@
       <c r="AG70">
         <v>3.818889141082764</v>
       </c>
-      <c r="AH70" t="s">
-        <v>155</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688630</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-2.17</v>
@@ -6708,7 +7950,7 @@
         <v>73877.97</v>
       </c>
       <c r="J71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K71">
         <v>14</v>
@@ -6749,8 +7991,23 @@
       <c r="W71">
         <v>-0.1</v>
       </c>
+      <c r="X71">
+        <v>4.35</v>
+      </c>
+      <c r="Y71">
+        <v>146.74</v>
+      </c>
+      <c r="Z71">
+        <v>4.81</v>
+      </c>
       <c r="AC71" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>1</v>
@@ -6758,22 +8015,25 @@
       <c r="AG71">
         <v>7.082350730895996</v>
       </c>
-      <c r="AH71" t="s">
-        <v>155</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688660</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-1.85</v>
@@ -6791,7 +8051,7 @@
         <v>112161.61</v>
       </c>
       <c r="J72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K72">
         <v>15</v>
@@ -6832,8 +8092,23 @@
       <c r="W72">
         <v>-0.21</v>
       </c>
+      <c r="X72">
+        <v>1.31</v>
+      </c>
+      <c r="Y72">
+        <v>19.81</v>
+      </c>
+      <c r="Z72">
+        <v>3.72</v>
+      </c>
       <c r="AC72" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6841,22 +8116,25 @@
       <c r="AG72">
         <v>6.215577125549316</v>
       </c>
-      <c r="AH72" t="s">
-        <v>155</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688788</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-3.12</v>
@@ -6874,7 +8152,7 @@
         <v>28704.5</v>
       </c>
       <c r="J73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -6915,8 +8193,23 @@
       <c r="W73">
         <v>-0.24</v>
       </c>
+      <c r="X73">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>80.89</v>
+      </c>
+      <c r="Z73">
+        <v>11.04</v>
+      </c>
       <c r="AC73" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6924,22 +8217,25 @@
       <c r="AG73">
         <v>2.870764493942261</v>
       </c>
-      <c r="AH73" t="s">
-        <v>155</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688800</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>0.09</v>
@@ -6957,7 +8253,7 @@
         <v>68354.16</v>
       </c>
       <c r="J74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K74">
         <v>6</v>
@@ -6998,8 +8294,23 @@
       <c r="W74">
         <v>0.17</v>
       </c>
+      <c r="X74">
+        <v>4.66</v>
+      </c>
+      <c r="Y74">
+        <v>72.27</v>
+      </c>
+      <c r="Z74">
+        <v>6.22</v>
+      </c>
       <c r="AC74" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7007,8 +8318,11 @@
       <c r="AG74">
         <v>5.759204864501953</v>
       </c>
-      <c r="AH74" t="s">
-        <v>155</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
